--- a/cluster_analysis.xlsx
+++ b/cluster_analysis.xlsx
@@ -1,65 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertodebes/Library/CloudStorage/GoogleDrive-alberto.j.debes@gmail.com/My Drive/GT/Masters/Spring_2023/CSE_6242/Project/net-value/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFB91C2-7565-844A-A2C3-863629E45CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Cluster Analysis" sheetId="27" r:id="rId1"/>
-    <sheet name="passes_90min_I" sheetId="1" r:id="rId2"/>
-    <sheet name="passes_accuracy_90mins" sheetId="2" r:id="rId3"/>
-    <sheet name="passes_key_90mins" sheetId="3" r:id="rId4"/>
-    <sheet name="goals_assists_90mins" sheetId="4" r:id="rId5"/>
-    <sheet name="duels_total_90mins" sheetId="5" r:id="rId6"/>
-    <sheet name="duels_won_90mins" sheetId="6" r:id="rId7"/>
-    <sheet name="tackles_total_90mins" sheetId="7" r:id="rId8"/>
-    <sheet name="tackles_blocks_90mins" sheetId="8" r:id="rId9"/>
-    <sheet name="tackles_interceptions_90mins" sheetId="9" r:id="rId10"/>
-    <sheet name="fouls_committed_90mins" sheetId="10" r:id="rId11"/>
-    <sheet name="cards_yellow_90mins" sheetId="11" r:id="rId12"/>
-    <sheet name="cards_yellowred_90mins" sheetId="12" r:id="rId13"/>
-    <sheet name="cards_red_90mins" sheetId="13" r:id="rId14"/>
-    <sheet name="penalty_commited_90mins" sheetId="14" r:id="rId15"/>
-    <sheet name="dribbles_attempts_90mins" sheetId="15" r:id="rId16"/>
-    <sheet name="dribbles_success_90mins" sheetId="16" r:id="rId17"/>
-    <sheet name="penalty_won_90mins" sheetId="17" r:id="rId18"/>
-    <sheet name="fouls_drawn_90mins" sheetId="18" r:id="rId19"/>
-    <sheet name="shots_90mins" sheetId="19" r:id="rId20"/>
-    <sheet name="shots_on_90mins" sheetId="20" r:id="rId21"/>
-    <sheet name="goals_total_90mins" sheetId="21" r:id="rId22"/>
-    <sheet name="penalty_missed_90mins" sheetId="22" r:id="rId23"/>
-    <sheet name="penalty_scored_90mins" sheetId="23" r:id="rId24"/>
-    <sheet name="saves_90min_I" sheetId="24" r:id="rId25"/>
-    <sheet name="penalty_saved_90mins" sheetId="25" r:id="rId26"/>
-    <sheet name="goals_conceded_90mins" sheetId="26" r:id="rId27"/>
+    <sheet name="passes_90min_I" sheetId="1" r:id="rId1"/>
+    <sheet name="passes_accuracy_90mins" sheetId="2" r:id="rId2"/>
+    <sheet name="passes_key_90mins" sheetId="3" r:id="rId3"/>
+    <sheet name="goals_assists_90mins" sheetId="4" r:id="rId4"/>
+    <sheet name="duels_total_90mins" sheetId="5" r:id="rId5"/>
+    <sheet name="duels_won_90mins" sheetId="6" r:id="rId6"/>
+    <sheet name="tackles_total_90mins" sheetId="7" r:id="rId7"/>
+    <sheet name="tackles_blocks_90mins" sheetId="8" r:id="rId8"/>
+    <sheet name="tackles_interceptions_90mins" sheetId="9" r:id="rId9"/>
+    <sheet name="fouls_committed_90mins" sheetId="10" r:id="rId10"/>
+    <sheet name="cards_yellow_90mins" sheetId="11" r:id="rId11"/>
+    <sheet name="cards_yellowred_90mins" sheetId="12" r:id="rId12"/>
+    <sheet name="cards_red_90mins" sheetId="13" r:id="rId13"/>
+    <sheet name="penalty_commited_90mins" sheetId="14" r:id="rId14"/>
+    <sheet name="dribbles_attempts_90mins" sheetId="15" r:id="rId15"/>
+    <sheet name="dribbles_success_90mins" sheetId="16" r:id="rId16"/>
+    <sheet name="penalty_won_90mins" sheetId="17" r:id="rId17"/>
+    <sheet name="fouls_drawn_90mins" sheetId="18" r:id="rId18"/>
+    <sheet name="shots_90mins" sheetId="19" r:id="rId19"/>
+    <sheet name="shots_on_90mins" sheetId="20" r:id="rId20"/>
+    <sheet name="goals_total_90mins" sheetId="21" r:id="rId21"/>
+    <sheet name="penalty_missed_90mins" sheetId="22" r:id="rId22"/>
+    <sheet name="penalty_scored_90mins" sheetId="23" r:id="rId23"/>
+    <sheet name="saves_90min_I" sheetId="24" r:id="rId24"/>
+    <sheet name="penalty_saved_90mins" sheetId="25" r:id="rId25"/>
+    <sheet name="goals_conceded_90mins" sheetId="26" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="12">
   <si>
     <t>0</t>
   </si>
@@ -96,30 +76,12 @@
   <si>
     <t>&gt;=75</t>
   </si>
-  <si>
-    <t>duels_total</t>
-  </si>
-  <si>
-    <t>duels_won</t>
-  </si>
-  <si>
-    <t>tackles_total</t>
-  </si>
-  <si>
-    <t>tackles_blocks</t>
-  </si>
-  <si>
-    <t>tackles_interceptions</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,12 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -185,14 +144,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -239,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,27 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,24 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,211 +431,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8D65E4-1B96-7F40-B5F0-B32007B4241E}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.02096436058700209</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>56.45990922844175</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>55.05241090146751</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>25.77474892395983</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>12.35142118863049</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>10.10204081632653</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>12.12753277711561</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>11.08525843443577</v>
       </c>
       <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
+        <v>3.826714801444044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>26.20272314674735</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>27.58385744234801</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>33.50071736011478</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>26.72069532534649</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>18.6734693877551</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>25.37246722288439</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>9.65597473824165</v>
       </c>
       <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
+        <v>15.67342404887531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>12.09682299546142</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>13.31761006289308</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>24.02439024390244</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>33.22292694385717</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>25.51020408163265</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>28.84386174016687</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>15.83845770317434</v>
       </c>
       <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
+        <v>32.30213829491807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5.24054462934947</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4.025157232704403</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>16.70014347202295</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>27.70495654216584</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>45.71428571428572</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>33.65613825983313</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>63.42030912414825</v>
       </c>
       <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>1.6</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2.6</v>
-      </c>
-      <c r="E8">
-        <v>2.4</v>
-      </c>
-      <c r="F8">
-        <v>3.6</v>
-      </c>
-      <c r="G8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H8">
-        <v>1.4</v>
-      </c>
-      <c r="I8">
-        <v>2.6</v>
+        <v>48.19772285476257</v>
       </c>
     </row>
   </sheetData>
@@ -729,16 +615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="238" workbookViewId="0">
-      <selection activeCell="I9" sqref="B8:I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,149 +648,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.71104387291982</v>
+        <v>1.08320726172466</v>
       </c>
       <c r="C2">
-        <v>42.416142557651987</v>
+        <v>47.0230607966457</v>
       </c>
       <c r="D2">
-        <v>5.9110473457675754</v>
+        <v>0.9182209469153515</v>
       </c>
       <c r="E2">
-        <v>1.966173361522199</v>
+        <v>0.718816067653277</v>
       </c>
       <c r="F2">
-        <v>6.7346938775510203</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="G2">
-        <v>9.8927294398092975</v>
+        <v>4.573897497020262</v>
       </c>
       <c r="H2">
-        <v>31.5439587834469</v>
+        <v>33.83746052850258</v>
       </c>
       <c r="I2">
-        <v>1.133018605942794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.077200777561789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>60.574886535552203</v>
+        <v>18.98940998487141</v>
       </c>
       <c r="C3">
-        <v>32.368972746331238</v>
+        <v>41.77148846960168</v>
       </c>
       <c r="D3">
-        <v>30.552367288378768</v>
+        <v>11.79340028694405</v>
       </c>
       <c r="E3">
-        <v>9.5560253699788582</v>
+        <v>17.08949964763918</v>
       </c>
       <c r="F3">
-        <v>0.7142857142857143</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="G3">
-        <v>27.02622169249106</v>
+        <v>24.89570917759237</v>
       </c>
       <c r="H3">
-        <v>5.634036895462855</v>
+        <v>12.26524846268905</v>
       </c>
       <c r="I3">
-        <v>3.7434046098306029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30.06387114690364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>21.180030257186079</v>
+        <v>22.71709531013616</v>
       </c>
       <c r="C4">
-        <v>13.57442348008386</v>
+        <v>8.29664570230608</v>
       </c>
       <c r="D4">
-        <v>35.444763271162117</v>
+        <v>19.5480631276901</v>
       </c>
       <c r="E4">
-        <v>23.03265210241954</v>
+        <v>26.41296687808315</v>
       </c>
       <c r="F4">
-        <v>4.4897959183673466</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="G4">
-        <v>32.62812872467223</v>
+        <v>23.92729439809297</v>
       </c>
       <c r="H4">
-        <v>19.727438923051359</v>
+        <v>19.52800398869869</v>
       </c>
       <c r="I4">
-        <v>17.384059983337959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.29658428214385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.6580937972768526</v>
+        <v>26.34190620272315</v>
       </c>
       <c r="C5">
-        <v>8.0345911949685522</v>
+        <v>2.379454926624738</v>
       </c>
       <c r="D5">
-        <v>18.47202295552367</v>
+        <v>26.85796269727403</v>
       </c>
       <c r="E5">
-        <v>32.053089029833217</v>
+        <v>30.28188865398167</v>
       </c>
       <c r="F5">
-        <v>6.1224489795918364</v>
+        <v>0.9183673469387756</v>
       </c>
       <c r="G5">
-        <v>18.221096543504171</v>
+        <v>23.10786650774732</v>
       </c>
       <c r="H5">
-        <v>11.999335216885489</v>
+        <v>10.66976898786771</v>
       </c>
       <c r="I5">
-        <v>37.084143293529579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23.23798944737573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.8759455370650531</v>
+        <v>30.86838124054463</v>
       </c>
       <c r="C6">
-        <v>3.6058700209643608</v>
+        <v>0.5293501048218029</v>
       </c>
       <c r="D6">
-        <v>9.6197991391678617</v>
+        <v>40.88235294117647</v>
       </c>
       <c r="E6">
-        <v>33.39206013624618</v>
+        <v>25.49682875264271</v>
       </c>
       <c r="F6">
-        <v>81.938775510204081</v>
+        <v>98.26530612244898</v>
       </c>
       <c r="G6">
-        <v>12.23182359952324</v>
+        <v>23.49523241954708</v>
       </c>
       <c r="H6">
-        <v>31.095230181153401</v>
+        <v>23.69951803224198</v>
       </c>
       <c r="I6">
-        <v>40.655373507359073</v>
+        <v>12.324354346015</v>
       </c>
     </row>
   </sheetData>
@@ -915,14 +799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="259" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,149 +832,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.08320726172466</v>
+        <v>23.07413010590015</v>
       </c>
       <c r="C2">
-        <v>47.023060796645701</v>
+        <v>43.28092243186583</v>
       </c>
       <c r="D2">
-        <v>0.9182209469153515</v>
+        <v>22.18077474892396</v>
       </c>
       <c r="E2">
-        <v>0.71881606765327699</v>
+        <v>15.18675123326286</v>
       </c>
       <c r="F2">
-        <v>0.61224489795918369</v>
+        <v>71.53061224489797</v>
       </c>
       <c r="G2">
-        <v>4.5738974970202619</v>
+        <v>39.91358760429083</v>
       </c>
       <c r="H2">
-        <v>33.837460528502582</v>
+        <v>75.95147083264085</v>
       </c>
       <c r="I2">
-        <v>2.0772007775617891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18.62260483199111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>18.989409984871411</v>
+        <v>25.28290468986384</v>
       </c>
       <c r="C3">
-        <v>41.771488469601678</v>
+        <v>26.09538784067086</v>
       </c>
       <c r="D3">
-        <v>11.793400286944051</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="E3">
-        <v>17.08949964763918</v>
+        <v>16.91801738313366</v>
       </c>
       <c r="F3">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>24.895709177592369</v>
+        <v>13.79618593563766</v>
       </c>
       <c r="H3">
-        <v>12.265248462689049</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>30.06387114690364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16.89530685920577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.717095310136159</v>
+        <v>21.18608169440242</v>
       </c>
       <c r="C4">
-        <v>8.2966457023060798</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="D4">
-        <v>19.548063127690099</v>
+        <v>19.7274031563845</v>
       </c>
       <c r="E4">
-        <v>26.41296687808315</v>
+        <v>21.53629316420014</v>
       </c>
       <c r="F4">
-        <v>0.1020408163265306</v>
+        <v>1.63265306122449</v>
       </c>
       <c r="G4">
-        <v>23.927294398092972</v>
+        <v>14.16865315852205</v>
       </c>
       <c r="H4">
-        <v>19.528003988698689</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>32.296584282143847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.1718966953624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>26.341906202723148</v>
+        <v>17.67019667170953</v>
       </c>
       <c r="C5">
-        <v>2.3794549266247378</v>
+        <v>9.570230607966456</v>
       </c>
       <c r="D5">
-        <v>26.857962697274029</v>
+        <v>18.73744619799139</v>
       </c>
       <c r="E5">
-        <v>30.281888653981671</v>
+        <v>23.00211416490486</v>
       </c>
       <c r="F5">
-        <v>0.91836734693877564</v>
+        <v>2.755102040816327</v>
       </c>
       <c r="G5">
-        <v>23.107866507747321</v>
+        <v>13.73659117997616</v>
       </c>
       <c r="H5">
-        <v>10.669768987867711</v>
+        <v>0.04985873358816686</v>
       </c>
       <c r="I5">
-        <v>23.237989447375728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.6439877811719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>30.868381240544629</v>
+        <v>12.78668683812405</v>
       </c>
       <c r="C6">
-        <v>0.52935010482180289</v>
+        <v>7.720125786163521</v>
       </c>
       <c r="D6">
-        <v>40.882352941176471</v>
+        <v>22.28120516499283</v>
       </c>
       <c r="E6">
-        <v>25.49682875264271</v>
+        <v>23.35682405449847</v>
       </c>
       <c r="F6">
-        <v>98.265306122448976</v>
+        <v>24.08163265306122</v>
       </c>
       <c r="G6">
-        <v>23.495232419547079</v>
+        <v>18.3849821215733</v>
       </c>
       <c r="H6">
-        <v>23.699518032241979</v>
+        <v>23.99867043377098</v>
       </c>
       <c r="I6">
-        <v>12.324354346014999</v>
+        <v>21.66620383226882</v>
       </c>
     </row>
   </sheetData>
@@ -1099,14 +983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,149 +1016,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.074130105900149</v>
+        <v>95.5158850226929</v>
       </c>
       <c r="C2">
-        <v>43.280922431865832</v>
+        <v>97.22746331236898</v>
       </c>
       <c r="D2">
-        <v>22.180774748923959</v>
+        <v>94.33285509325682</v>
       </c>
       <c r="E2">
-        <v>15.186751233262861</v>
+        <v>91.86046511627907</v>
       </c>
       <c r="F2">
-        <v>71.530612244897966</v>
+        <v>99.48979591836735</v>
       </c>
       <c r="G2">
-        <v>39.913587604290832</v>
+        <v>97.28843861740167</v>
       </c>
       <c r="H2">
-        <v>75.951470832640851</v>
+        <v>98.96958617251121</v>
       </c>
       <c r="I2">
-        <v>18.622604831991111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91.63565676201056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>25.282904689863841</v>
+        <v>0.962178517397882</v>
       </c>
       <c r="C3">
-        <v>26.09538784067086</v>
+        <v>0.670859538784067</v>
       </c>
       <c r="D3">
-        <v>17.073170731707322</v>
+        <v>1.054519368723099</v>
       </c>
       <c r="E3">
-        <v>16.918017383133659</v>
+        <v>2.198731501057082</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>13.796185935637659</v>
+        <v>0.6108462455303932</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.895306859205771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.266037211885588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>21.186081694402422</v>
+        <v>1.29500756429652</v>
       </c>
       <c r="C4">
-        <v>13.33333333333333</v>
+        <v>0.7285115303983228</v>
       </c>
       <c r="D4">
-        <v>19.727403156384501</v>
+        <v>1.348637015781923</v>
       </c>
       <c r="E4">
-        <v>21.536293164200139</v>
+        <v>2.048390885600188</v>
       </c>
       <c r="F4">
-        <v>1.6326530612244901</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>14.16865315852205</v>
+        <v>0.4618593563766388</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.171896695362399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.082754790336018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>17.67019667170953</v>
+        <v>1.234493192133132</v>
       </c>
       <c r="C5">
-        <v>9.5702306079664563</v>
+        <v>0.7023060796645701</v>
       </c>
       <c r="D5">
-        <v>18.737446197991389</v>
+        <v>1.470588235294118</v>
       </c>
       <c r="E5">
-        <v>23.00211416490486</v>
+        <v>2.034296452901104</v>
       </c>
       <c r="F5">
-        <v>2.7551020408163271</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>13.736591179976161</v>
+        <v>0.5959475566150179</v>
       </c>
       <c r="H5">
-        <v>4.9858733588166858E-2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>21.643987781171901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.0605387392391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>12.78668683812405</v>
+        <v>0.9924357034795763</v>
       </c>
       <c r="C6">
-        <v>7.7201257861635213</v>
+        <v>0.670859538784067</v>
       </c>
       <c r="D6">
-        <v>22.28120516499283</v>
+        <v>1.793400286944046</v>
       </c>
       <c r="E6">
-        <v>23.356824054498471</v>
+        <v>1.858116044162556</v>
       </c>
       <c r="F6">
-        <v>24.08163265306122</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="G6">
-        <v>18.384982121573302</v>
+        <v>1.042908224076281</v>
       </c>
       <c r="H6">
-        <v>23.998670433770979</v>
+        <v>1.030413827488782</v>
       </c>
       <c r="I6">
-        <v>21.66620383226882</v>
+        <v>1.955012496528742</v>
       </c>
     </row>
   </sheetData>
@@ -1283,14 +1167,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,149 +1200,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>95.515885022692899</v>
+        <v>93.48865355521937</v>
       </c>
       <c r="C2">
-        <v>97.227463312368982</v>
+        <v>95.34591194968553</v>
       </c>
       <c r="D2">
-        <v>94.332855093256825</v>
+        <v>93.80200860832137</v>
       </c>
       <c r="E2">
-        <v>91.860465116279073</v>
+        <v>92.66149870801034</v>
       </c>
       <c r="F2">
-        <v>99.489795918367349</v>
+        <v>98.57142857142858</v>
       </c>
       <c r="G2">
-        <v>97.288438617401667</v>
+        <v>96.46901072705602</v>
       </c>
       <c r="H2">
-        <v>98.969586172511214</v>
+        <v>98.91972743892306</v>
       </c>
       <c r="I2">
-        <v>91.635656762010555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>90.94695917800611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96217851739788196</v>
+        <v>1.367624810892587</v>
       </c>
       <c r="C3">
-        <v>0.67085953878406701</v>
+        <v>1.488469601677149</v>
       </c>
       <c r="D3">
-        <v>1.0545193687230989</v>
+        <v>1.169296987087518</v>
       </c>
       <c r="E3">
-        <v>2.198731501057082</v>
+        <v>1.879257693211182</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.61084624553039324</v>
+        <v>0.566150178784267</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.266037211885588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.571507914468203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.29500756429652</v>
+        <v>1.633888048411498</v>
       </c>
       <c r="C4">
-        <v>0.72851153039832284</v>
+        <v>0.9905660377358491</v>
       </c>
       <c r="D4">
-        <v>1.348637015781923</v>
+        <v>1.456241032998565</v>
       </c>
       <c r="E4">
-        <v>2.0483908856001878</v>
+        <v>1.994362226920366</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.46185935637663877</v>
+        <v>0.7598331346841478</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.082754790336018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.277145237434046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.2344931921331319</v>
+        <v>2.033282904689864</v>
       </c>
       <c r="C5">
-        <v>0.70230607966457015</v>
+        <v>0.9958071278825996</v>
       </c>
       <c r="D5">
-        <v>1.470588235294118</v>
+        <v>1.671449067431851</v>
       </c>
       <c r="E5">
-        <v>2.0342964529011041</v>
+        <v>1.78999295278365</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.59594755661501786</v>
+        <v>0.7598331346841478</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.0605387392390999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.249375173562899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.99243570347957633</v>
+        <v>1.476550680786687</v>
       </c>
       <c r="C6">
-        <v>0.67085953878406701</v>
+        <v>1.179245283018868</v>
       </c>
       <c r="D6">
-        <v>1.793400286944046</v>
+        <v>1.901004304160689</v>
       </c>
       <c r="E6">
-        <v>1.8581160441625559</v>
+        <v>1.674888419074466</v>
       </c>
       <c r="F6">
-        <v>0.51020408163265307</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="G6">
-        <v>1.042908224076281</v>
+        <v>1.445172824791418</v>
       </c>
       <c r="H6">
-        <v>1.030413827488782</v>
+        <v>1.080272561076949</v>
       </c>
       <c r="I6">
-        <v>1.9550124965287421</v>
+        <v>1.955012496528742</v>
       </c>
     </row>
   </sheetData>
@@ -1467,14 +1351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,149 +1384,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>93.488653555219372</v>
+        <v>97.40393343419062</v>
       </c>
       <c r="C2">
-        <v>95.345911949685529</v>
+        <v>96.57232704402516</v>
       </c>
       <c r="D2">
-        <v>93.802008608321373</v>
+        <v>95.99713055954089</v>
       </c>
       <c r="E2">
-        <v>92.661498708010342</v>
+        <v>89.31876908621095</v>
       </c>
       <c r="F2">
-        <v>98.571428571428584</v>
+        <v>94.48979591836735</v>
       </c>
       <c r="G2">
-        <v>96.469010727056016</v>
+        <v>97.34803337306317</v>
       </c>
       <c r="H2">
-        <v>98.919727438923061</v>
+        <v>97.95579192288515</v>
       </c>
       <c r="I2">
-        <v>90.946959178006111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87.81449597334074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.367624810892587</v>
+        <v>0.8350983358547655</v>
       </c>
       <c r="C3">
-        <v>1.488469601677149</v>
+        <v>0.670859538784067</v>
       </c>
       <c r="D3">
-        <v>1.1692969870875181</v>
+        <v>0.9827833572453373</v>
       </c>
       <c r="E3">
-        <v>1.879257693211182</v>
+        <v>2.884660559079164</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.56615017878426699</v>
+        <v>0.4171632896305125</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.5715079144682029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.910302693696196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.6338880484114979</v>
+        <v>0.7322239031770045</v>
       </c>
       <c r="C4">
-        <v>0.99056603773584906</v>
+        <v>0.8385744234800839</v>
       </c>
       <c r="D4">
-        <v>1.4562410329985651</v>
+        <v>1.004304160688666</v>
       </c>
       <c r="E4">
-        <v>1.994362226920366</v>
+        <v>2.802443035001175</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.75983313468414782</v>
+        <v>0.432061978545888</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.2771452374340462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.993612885309636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.0332829046898642</v>
+        <v>0.5869894099848714</v>
       </c>
       <c r="C5">
-        <v>0.99580712788259962</v>
+        <v>0.9119496855345912</v>
       </c>
       <c r="D5">
-        <v>1.671449067431851</v>
+        <v>0.9540889526542324</v>
       </c>
       <c r="E5">
-        <v>1.78999295278365</v>
+        <v>2.706131078224101</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.75983313468414782</v>
+        <v>0.6704410011918951</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.2493751735628988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.254651485698417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.4765506807866871</v>
+        <v>0.4417549167927383</v>
       </c>
       <c r="C6">
-        <v>1.179245283018868</v>
+        <v>1.006289308176101</v>
       </c>
       <c r="D6">
-        <v>1.901004304160689</v>
+        <v>1.061692969870875</v>
       </c>
       <c r="E6">
-        <v>1.674888419074466</v>
+        <v>2.287996241484614</v>
       </c>
       <c r="F6">
-        <v>1.428571428571429</v>
+        <v>5.510204081632653</v>
       </c>
       <c r="G6">
-        <v>1.445172824791418</v>
+        <v>1.132300357568534</v>
       </c>
       <c r="H6">
-        <v>1.080272561076949</v>
+        <v>2.044208077114841</v>
       </c>
       <c r="I6">
-        <v>1.9550124965287421</v>
+        <v>3.026936961955013</v>
       </c>
     </row>
   </sheetData>
@@ -1651,14 +1535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,149 +1568,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>97.40393343419062</v>
+        <v>1.192133131618759</v>
       </c>
       <c r="C2">
-        <v>96.572327044025158</v>
+        <v>53.87316561844864</v>
       </c>
       <c r="D2">
-        <v>95.997130559540892</v>
+        <v>0.0430416068866571</v>
       </c>
       <c r="E2">
-        <v>89.318769086210949</v>
+        <v>3.643410852713178</v>
       </c>
       <c r="F2">
-        <v>94.489795918367349</v>
+        <v>1.73469387755102</v>
       </c>
       <c r="G2">
-        <v>97.348033373063174</v>
+        <v>3.441597139451728</v>
       </c>
       <c r="H2">
-        <v>97.955791922885155</v>
+        <v>49.67591823167691</v>
       </c>
       <c r="I2">
-        <v>87.81449597334074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15.98444876423216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.83509833585476545</v>
+        <v>7.751891074130106</v>
       </c>
       <c r="C3">
-        <v>0.67085953878406701</v>
+        <v>31.39937106918239</v>
       </c>
       <c r="D3">
-        <v>0.98278335724533727</v>
+        <v>0.2008608321377331</v>
       </c>
       <c r="E3">
-        <v>2.8846605590791641</v>
+        <v>19.83321587972751</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="G3">
-        <v>0.41716328963051252</v>
+        <v>5.303933253873659</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.24896127638358</v>
       </c>
       <c r="I3">
-        <v>2.9103026936961962</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55.15134684809775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.73222390317700448</v>
+        <v>23.27987897125567</v>
       </c>
       <c r="C4">
-        <v>0.83857442348008393</v>
+        <v>10.81761006289308</v>
       </c>
       <c r="D4">
-        <v>1.004304160688666</v>
+        <v>1.305595408895265</v>
       </c>
       <c r="E4">
-        <v>2.8024430350011751</v>
+        <v>33.86422363166549</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.224489795918367</v>
       </c>
       <c r="G4">
-        <v>0.43206197854588801</v>
+        <v>14.76460071513707</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>18.08210071464185</v>
       </c>
       <c r="I4">
-        <v>2.993612885309636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20.97195223549014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.58698940998487137</v>
+        <v>38.26928895612708</v>
       </c>
       <c r="C5">
-        <v>0.91194968553459121</v>
+        <v>3.438155136268343</v>
       </c>
       <c r="D5">
-        <v>0.95408895265423244</v>
+        <v>10.480631276901</v>
       </c>
       <c r="E5">
-        <v>2.706131078224101</v>
+        <v>32.90110406389476</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="G5">
-        <v>0.67044100119189509</v>
+        <v>30.19964243146603</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.94665115506066</v>
       </c>
       <c r="I5">
-        <v>3.254651485698417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.603721188558734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.44175491679273832</v>
+        <v>29.50680786686838</v>
       </c>
       <c r="C6">
-        <v>1.0062893081761011</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="D6">
-        <v>1.061692969870875</v>
+        <v>87.96987087517934</v>
       </c>
       <c r="E6">
-        <v>2.2879962414846138</v>
+        <v>9.758045571999061</v>
       </c>
       <c r="F6">
-        <v>5.5102040816326534</v>
+        <v>93.87755102040816</v>
       </c>
       <c r="G6">
-        <v>1.132300357568534</v>
+        <v>46.29022646007152</v>
       </c>
       <c r="H6">
-        <v>2.044208077114841</v>
+        <v>13.046368622237</v>
       </c>
       <c r="I6">
-        <v>3.0269369619550131</v>
+        <v>1.288530963621216</v>
       </c>
     </row>
   </sheetData>
@@ -1835,16 +1719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="276" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1870,149 +1752,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.1921331316187589</v>
+        <v>3.987897125567323</v>
       </c>
       <c r="C2">
-        <v>53.873165618448638</v>
+        <v>58.55345911949685</v>
       </c>
       <c r="D2">
-        <v>4.3041606886657098E-2</v>
+        <v>0.2869440459110474</v>
       </c>
       <c r="E2">
-        <v>3.6434108527131781</v>
+        <v>7.331454075640122</v>
       </c>
       <c r="F2">
-        <v>1.7346938775510199</v>
+        <v>3.877551020408163</v>
       </c>
       <c r="G2">
-        <v>3.4415971394517282</v>
+        <v>7.5238379022646</v>
       </c>
       <c r="H2">
-        <v>49.67591823167691</v>
+        <v>58.26823998670434</v>
       </c>
       <c r="I2">
-        <v>15.984448764232161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22.52707581227437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>7.7518910741301061</v>
+        <v>13.64599092284418</v>
       </c>
       <c r="C3">
-        <v>31.39937106918239</v>
+        <v>28.07651991614255</v>
       </c>
       <c r="D3">
-        <v>0.20086083213773309</v>
+        <v>0.430416068866571</v>
       </c>
       <c r="E3">
-        <v>19.833215879727511</v>
+        <v>20.99365750528541</v>
       </c>
       <c r="F3">
-        <v>0.30612244897959179</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="G3">
-        <v>5.3039332538736588</v>
+        <v>4.380214541120382</v>
       </c>
       <c r="H3">
-        <v>6.2489612763835796</v>
+        <v>0.01661957786272229</v>
       </c>
       <c r="I3">
-        <v>55.151346848097752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45.84282143848931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>23.27987897125567</v>
+        <v>25.72465960665658</v>
       </c>
       <c r="C4">
-        <v>10.817610062893079</v>
+        <v>9.538784067085954</v>
       </c>
       <c r="D4">
-        <v>1.305595408895265</v>
+        <v>2.159253945480631</v>
       </c>
       <c r="E4">
-        <v>33.864223631665489</v>
+        <v>31.12755461592671</v>
       </c>
       <c r="F4">
-        <v>1.2244897959183669</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="G4">
-        <v>14.764600715137069</v>
+        <v>16.65673420738975</v>
       </c>
       <c r="H4">
-        <v>18.08210071464185</v>
+        <v>10.48695363137776</v>
       </c>
       <c r="I4">
-        <v>20.971952235490139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.23854484865315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>38.269288956127077</v>
+        <v>33.56127080181543</v>
       </c>
       <c r="C5">
-        <v>3.4381551362683429</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D5">
-        <v>10.480631276901001</v>
+        <v>12.92682926829268</v>
       </c>
       <c r="E5">
-        <v>32.901104063894763</v>
+        <v>30.12684989429176</v>
       </c>
       <c r="F5">
-        <v>2.8571428571428572</v>
+        <v>3.163265306122449</v>
       </c>
       <c r="G5">
-        <v>30.199642431466032</v>
+        <v>27.87544696066746</v>
       </c>
       <c r="H5">
-        <v>12.94665115506066</v>
+        <v>16.38690377264417</v>
       </c>
       <c r="I5">
-        <v>6.6037211885587341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.258816995279089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>29.506807866868382</v>
+        <v>23.08018154311649</v>
       </c>
       <c r="C6">
-        <v>0.47169811320754718</v>
+        <v>0.4979035639412998</v>
       </c>
       <c r="D6">
-        <v>87.969870875179339</v>
+        <v>84.19655667144906</v>
       </c>
       <c r="E6">
-        <v>9.7580455719990606</v>
+        <v>10.420483908856</v>
       </c>
       <c r="F6">
-        <v>93.877551020408163</v>
+        <v>91.83673469387756</v>
       </c>
       <c r="G6">
-        <v>46.290226460071523</v>
+        <v>43.56376638855781</v>
       </c>
       <c r="H6">
-        <v>13.046368622237001</v>
+        <v>14.841283031411</v>
       </c>
       <c r="I6">
-        <v>1.2885309636212161</v>
+        <v>2.132740905304082</v>
       </c>
     </row>
   </sheetData>
@@ -2021,16 +1903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="247" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2056,149 +1936,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.987897125567323</v>
+        <v>83.76399394856278</v>
       </c>
       <c r="C2">
-        <v>58.55345911949685</v>
+        <v>99.01991614255765</v>
       </c>
       <c r="D2">
-        <v>0.28694404591104739</v>
+        <v>87.81205164992826</v>
       </c>
       <c r="E2">
-        <v>7.3314540756401216</v>
+        <v>95.88912379610053</v>
       </c>
       <c r="F2">
-        <v>3.8775510204081631</v>
+        <v>92.44897959183673</v>
       </c>
       <c r="G2">
-        <v>7.5238379022646003</v>
+        <v>92.92312276519667</v>
       </c>
       <c r="H2">
-        <v>58.268239986704337</v>
+        <v>99.45155393053017</v>
       </c>
       <c r="I2">
-        <v>22.527075812274369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98.21716189947237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>13.645990922844179</v>
+        <v>3.40695915279879</v>
       </c>
       <c r="C3">
-        <v>28.076519916142551</v>
+        <v>0.2410901467505241</v>
       </c>
       <c r="D3">
-        <v>0.43041606886657102</v>
+        <v>2.510760401721664</v>
       </c>
       <c r="E3">
-        <v>20.993657505285409</v>
+        <v>1.418839558374442</v>
       </c>
       <c r="F3">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.3802145411203819</v>
+        <v>1.17699642431466</v>
       </c>
       <c r="H3">
-        <v>1.6619577862722289E-2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>45.84282143848931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.9108580949736184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>25.72465960665658</v>
+        <v>3.981845688350984</v>
       </c>
       <c r="C4">
-        <v>9.5387840670859543</v>
+        <v>0.2935010482180294</v>
       </c>
       <c r="D4">
-        <v>2.1592539454806312</v>
+        <v>2.826398852223816</v>
       </c>
       <c r="E4">
-        <v>31.127554615926709</v>
+        <v>1.1933286351891</v>
       </c>
       <c r="F4">
-        <v>1.0204081632653059</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>16.65673420738975</v>
+        <v>1.683551847437426</v>
       </c>
       <c r="H4">
-        <v>10.48695363137776</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>21.238544848653149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.4109969452929742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>33.561270801815432</v>
+        <v>4.883509833585477</v>
       </c>
       <c r="C5">
-        <v>3.333333333333333</v>
+        <v>0.2253668763102726</v>
       </c>
       <c r="D5">
-        <v>12.92682926829268</v>
+        <v>3.256814921090387</v>
       </c>
       <c r="E5">
-        <v>30.126849894291759</v>
+        <v>0.810429880197322</v>
       </c>
       <c r="F5">
-        <v>3.1632653061224492</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>27.87544696066746</v>
+        <v>1.594159713945173</v>
       </c>
       <c r="H5">
-        <v>16.386903772644171</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.2588169952790889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.277700638711469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>23.080181543116488</v>
+        <v>3.963691376701966</v>
       </c>
       <c r="C6">
-        <v>0.49790356394129981</v>
+        <v>0.220125786163522</v>
       </c>
       <c r="D6">
-        <v>84.196556671449059</v>
+        <v>3.593974175035868</v>
       </c>
       <c r="E6">
-        <v>10.420483908855999</v>
+        <v>0.6882781301385953</v>
       </c>
       <c r="F6">
-        <v>91.83673469387756</v>
+        <v>7.551020408163265</v>
       </c>
       <c r="G6">
-        <v>43.563766388557809</v>
+        <v>2.622169249106079</v>
       </c>
       <c r="H6">
-        <v>14.841283031411001</v>
+        <v>0.5484460694698354</v>
       </c>
       <c r="I6">
-        <v>2.132740905304082</v>
+        <v>0.1832824215495696</v>
       </c>
     </row>
   </sheetData>
@@ -2207,16 +2087,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="213" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2242,149 +2120,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>83.763993948562785</v>
+        <v>1.059001512859304</v>
       </c>
       <c r="C2">
-        <v>99.019916142557648</v>
+        <v>26.34696016771488</v>
       </c>
       <c r="D2">
-        <v>87.812051649928264</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="E2">
-        <v>95.889123796100534</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="F2">
-        <v>92.448979591836732</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G2">
-        <v>92.923122765196666</v>
+        <v>4.901668653158522</v>
       </c>
       <c r="H2">
-        <v>99.451553930530167</v>
+        <v>40.61824829649327</v>
       </c>
       <c r="I2">
-        <v>98.217161899472373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.798389336295473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3.4069591527987901</v>
+        <v>8.030257186081695</v>
       </c>
       <c r="C3">
-        <v>0.24109014675052409</v>
+        <v>58.32809224318658</v>
       </c>
       <c r="D3">
-        <v>2.5107604017216638</v>
+        <v>2.022955523672884</v>
       </c>
       <c r="E3">
-        <v>1.418839558374442</v>
+        <v>17.14587737843552</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.17699642431466</v>
+        <v>11.14421930870083</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.356822336712648</v>
       </c>
       <c r="I3">
-        <v>0.91085809497361836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39.64454318244932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.9818456883509841</v>
+        <v>21.12556732223903</v>
       </c>
       <c r="C4">
-        <v>0.29350104821802941</v>
+        <v>11.26310272536688</v>
       </c>
       <c r="D4">
-        <v>2.8263988522238161</v>
+        <v>8.292682926829269</v>
       </c>
       <c r="E4">
-        <v>1.1933286351890999</v>
+        <v>30.9584214235377</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="G4">
-        <v>1.683551847437426</v>
+        <v>20.05363528009535</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>20.17616752534486</v>
       </c>
       <c r="I4">
-        <v>0.4109969452929742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33.0241599555679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.8835098335854772</v>
+        <v>34.76550680786687</v>
       </c>
       <c r="C5">
-        <v>0.22536687631027261</v>
+        <v>3.39622641509434</v>
       </c>
       <c r="D5">
-        <v>3.2568149210903869</v>
+        <v>23.24964131994261</v>
       </c>
       <c r="E5">
-        <v>0.81042988019732198</v>
+        <v>31.34366925064599</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="G5">
-        <v>1.5941597139451731</v>
+        <v>28.76936829558999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.01878012298488</v>
       </c>
       <c r="I5">
-        <v>0.27770063871146899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16.14551513468481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3.9636913767019659</v>
+        <v>35.0196671709531</v>
       </c>
       <c r="C6">
-        <v>0.22012578616352199</v>
+        <v>0.6656184486373166</v>
       </c>
       <c r="D6">
-        <v>3.5939741750358678</v>
+        <v>65.82496413199425</v>
       </c>
       <c r="E6">
-        <v>0.68827813013859529</v>
+        <v>18.73385012919897</v>
       </c>
       <c r="F6">
-        <v>7.5510204081632653</v>
+        <v>97.95918367346938</v>
       </c>
       <c r="G6">
-        <v>2.6221692491060788</v>
+        <v>35.1311084624553</v>
       </c>
       <c r="H6">
-        <v>0.54844606946983543</v>
+        <v>18.82998171846435</v>
       </c>
       <c r="I6">
-        <v>0.18328242154956961</v>
+        <v>5.387392391002499</v>
       </c>
     </row>
   </sheetData>
@@ -2393,16 +2271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2428,149 +2304,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.059001512859304</v>
+        <v>0.02420574886535552</v>
       </c>
       <c r="C2">
-        <v>26.346960167714879</v>
+        <v>62.36373165618448</v>
       </c>
       <c r="D2">
-        <v>0.6097560975609756</v>
+        <v>1.370157819225251</v>
       </c>
       <c r="E2">
-        <v>1.8181818181818179</v>
+        <v>5.940803382663848</v>
       </c>
       <c r="F2">
-        <v>0.7142857142857143</v>
+        <v>2.448979591836735</v>
       </c>
       <c r="G2">
-        <v>4.9016686531585218</v>
+        <v>6.436233611442193</v>
       </c>
       <c r="H2">
-        <v>40.61824829649327</v>
+        <v>51.81984377596809</v>
       </c>
       <c r="I2">
-        <v>5.7983893362954726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12.12996389891697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>8.0302571860816947</v>
+        <v>0.1996974281391831</v>
       </c>
       <c r="C3">
-        <v>58.328092243186582</v>
+        <v>23.11844863731656</v>
       </c>
       <c r="D3">
-        <v>2.0229555236728838</v>
+        <v>2.898134863701578</v>
       </c>
       <c r="E3">
-        <v>17.145877378435522</v>
+        <v>29.21775898520085</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>11.14421930870083</v>
+        <v>4.931466030989274</v>
       </c>
       <c r="H3">
-        <v>9.3568223367126482</v>
+        <v>1.878012298487618</v>
       </c>
       <c r="I3">
-        <v>39.644543182449318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45.16523188003332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>21.125567322239029</v>
+        <v>2.299546142208774</v>
       </c>
       <c r="C4">
-        <v>11.263102725366879</v>
+        <v>9.365828092243186</v>
       </c>
       <c r="D4">
-        <v>8.2926829268292686</v>
+        <v>11.26255380200861</v>
       </c>
       <c r="E4">
-        <v>30.9584214235377</v>
+        <v>33.75616631430584</v>
       </c>
       <c r="F4">
-        <v>0.51020408163265307</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="G4">
-        <v>20.053635280095349</v>
+        <v>14.73480333730632</v>
       </c>
       <c r="H4">
-        <v>20.176167525344859</v>
+        <v>14.17649991690211</v>
       </c>
       <c r="I4">
-        <v>33.024159955567903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.80755345737295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>34.765506807866871</v>
+        <v>22.10590015128593</v>
       </c>
       <c r="C5">
-        <v>3.3962264150943402</v>
+        <v>4.418238993710691</v>
       </c>
       <c r="D5">
-        <v>23.249641319942612</v>
+        <v>38.88091822094692</v>
       </c>
       <c r="E5">
-        <v>31.343669250645991</v>
+        <v>25.95489781536293</v>
       </c>
       <c r="F5">
-        <v>0.81632653061224492</v>
+        <v>1.836734693877551</v>
       </c>
       <c r="G5">
-        <v>28.769368295589992</v>
+        <v>32.59833134684148</v>
       </c>
       <c r="H5">
-        <v>11.018780122984881</v>
+        <v>18.1984377596809</v>
       </c>
       <c r="I5">
-        <v>16.14551513468481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.864204387670091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>35.019667170953099</v>
+        <v>75.37065052950076</v>
       </c>
       <c r="C6">
-        <v>0.66561844863731656</v>
+        <v>0.7337526205450734</v>
       </c>
       <c r="D6">
-        <v>65.82496413199425</v>
+        <v>45.58823529411764</v>
       </c>
       <c r="E6">
-        <v>18.73385012919897</v>
+        <v>5.130373502466526</v>
       </c>
       <c r="F6">
-        <v>97.959183673469383</v>
+        <v>95.20408163265306</v>
       </c>
       <c r="G6">
-        <v>35.131108462455302</v>
+        <v>41.29916567342074</v>
       </c>
       <c r="H6">
-        <v>18.829981718464349</v>
+        <v>13.92720624896128</v>
       </c>
       <c r="I6">
-        <v>5.387392391002499</v>
+        <v>1.033046376006665</v>
       </c>
     </row>
   </sheetData>
@@ -2579,16 +2455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="249" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2614,7 +2488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.0964360587002091E-2</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2643,120 +2517,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>56.459909228441752</v>
+        <v>35.90317700453858</v>
       </c>
       <c r="C3">
-        <v>55.05241090146751</v>
+        <v>26.59853249475891</v>
       </c>
       <c r="D3">
-        <v>25.77474892395983</v>
+        <v>28.03443328550933</v>
       </c>
       <c r="E3">
-        <v>12.351421188630489</v>
+        <v>25.71294338736199</v>
       </c>
       <c r="F3">
-        <v>10.102040816326531</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="G3">
-        <v>12.12753277711561</v>
+        <v>14.42193087008343</v>
       </c>
       <c r="H3">
-        <v>11.085258434435771</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.826714801444044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22.9103026936962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>26.202723146747349</v>
+        <v>24.93192133131619</v>
       </c>
       <c r="C4">
-        <v>27.583857442348009</v>
+        <v>21.04297693920335</v>
       </c>
       <c r="D4">
-        <v>33.500717360114777</v>
+        <v>24.18938307030129</v>
       </c>
       <c r="E4">
-        <v>26.72069532534649</v>
+        <v>29.72750763448438</v>
       </c>
       <c r="F4">
-        <v>18.673469387755102</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="G4">
-        <v>25.372467222884389</v>
+        <v>18.83194278903456</v>
       </c>
       <c r="H4">
-        <v>9.6559747382416496</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15.67342404887531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30.55262427103582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>12.096822995461419</v>
+        <v>25.26475037821483</v>
       </c>
       <c r="C5">
-        <v>13.317610062893079</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="D5">
-        <v>24.024390243902442</v>
+        <v>26.85796269727403</v>
       </c>
       <c r="E5">
-        <v>33.222926943857168</v>
+        <v>26.97204604181348</v>
       </c>
       <c r="F5">
-        <v>25.510204081632651</v>
+        <v>11.22448979591837</v>
       </c>
       <c r="G5">
-        <v>28.843861740166869</v>
+        <v>25.34266984505363</v>
       </c>
       <c r="H5">
-        <v>15.83845770317434</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>32.302138294918073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25.51513468480978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>5.2405446293494702</v>
+        <v>13.90015128593041</v>
       </c>
       <c r="C6">
-        <v>4.0251572327044034</v>
+        <v>25.66037735849057</v>
       </c>
       <c r="D6">
-        <v>16.700143472022951</v>
+        <v>20.91822094691535</v>
       </c>
       <c r="E6">
-        <v>27.704956542165839</v>
+        <v>17.58750293634015</v>
       </c>
       <c r="F6">
-        <v>45.714285714285722</v>
+        <v>85.81632653061224</v>
       </c>
       <c r="G6">
-        <v>33.656138259833128</v>
+        <v>41.40345649582837</v>
       </c>
       <c r="H6">
-        <v>63.420309124148247</v>
+        <v>100</v>
       </c>
       <c r="I6">
-        <v>48.197722854762567</v>
+        <v>21.02193835045821</v>
       </c>
     </row>
   </sheetData>
@@ -2765,14 +2639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2798,149 +2672,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.4205748865355519E-2</v>
+        <v>0.07866868381240545</v>
       </c>
       <c r="C2">
-        <v>62.363731656184477</v>
+        <v>74.86897274633124</v>
       </c>
       <c r="D2">
-        <v>1.370157819225251</v>
+        <v>6.29842180774749</v>
       </c>
       <c r="E2">
-        <v>5.940803382663848</v>
+        <v>22.30913789053324</v>
       </c>
       <c r="F2">
-        <v>2.4489795918367352</v>
+        <v>9.693877551020408</v>
       </c>
       <c r="G2">
-        <v>6.4362336114421934</v>
+        <v>17.40166865315852</v>
       </c>
       <c r="H2">
-        <v>51.819843775968089</v>
+        <v>78.17849426624564</v>
       </c>
       <c r="I2">
-        <v>12.129963898916969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33.87947792279923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.19969742813918309</v>
+        <v>0.151285930408472</v>
       </c>
       <c r="C3">
-        <v>23.118448637316561</v>
+        <v>13.5482180293501</v>
       </c>
       <c r="D3">
-        <v>2.898134863701578</v>
+        <v>3.263988522238163</v>
       </c>
       <c r="E3">
-        <v>29.217758985200849</v>
+        <v>28.06436457599249</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.9314660309892737</v>
+        <v>2.264600715137068</v>
       </c>
       <c r="H3">
-        <v>1.878012298487618</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>45.165231880033318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36.69536239933352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.299546142208774</v>
+        <v>1.518910741301059</v>
       </c>
       <c r="C4">
-        <v>9.365828092243186</v>
+        <v>7.866876310272537</v>
       </c>
       <c r="D4">
-        <v>11.262553802008609</v>
+        <v>16.59253945480631</v>
       </c>
       <c r="E4">
-        <v>33.756166314305837</v>
+        <v>29.51609114399812</v>
       </c>
       <c r="F4">
-        <v>0.51020408163265307</v>
+        <v>0.9183673469387756</v>
       </c>
       <c r="G4">
-        <v>14.734803337306319</v>
+        <v>14.54112038140644</v>
       </c>
       <c r="H4">
-        <v>14.17649991690211</v>
+        <v>0.5484460694698354</v>
       </c>
       <c r="I4">
-        <v>32.807553457372947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22.9103026936962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>22.10590015128593</v>
+        <v>23.59455370650529</v>
       </c>
       <c r="C5">
-        <v>4.4182389937106912</v>
+        <v>3.286163522012579</v>
       </c>
       <c r="D5">
-        <v>38.880918220946917</v>
+        <v>40.98278335724534</v>
       </c>
       <c r="E5">
-        <v>25.95489781536293</v>
+        <v>17.88113695090439</v>
       </c>
       <c r="F5">
-        <v>1.8367346938775511</v>
+        <v>5.102040816326531</v>
       </c>
       <c r="G5">
-        <v>32.598331346841483</v>
+        <v>32.68772348033373</v>
       </c>
       <c r="H5">
-        <v>18.1984377596809</v>
+        <v>10.71962772145588</v>
       </c>
       <c r="I5">
-        <v>8.8642043876700907</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.659539016939739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>75.370650529500764</v>
+        <v>74.65658093797278</v>
       </c>
       <c r="C6">
-        <v>0.7337526205450734</v>
+        <v>0.4297693920335429</v>
       </c>
       <c r="D6">
-        <v>45.588235294117638</v>
+        <v>32.86226685796269</v>
       </c>
       <c r="E6">
-        <v>5.1303735024665258</v>
+        <v>2.229269438571764</v>
       </c>
       <c r="F6">
-        <v>95.204081632653057</v>
+        <v>84.28571428571429</v>
       </c>
       <c r="G6">
-        <v>41.299165673420738</v>
+        <v>33.10488676996425</v>
       </c>
       <c r="H6">
-        <v>13.92720624896128</v>
+        <v>10.55343194282865</v>
       </c>
       <c r="I6">
-        <v>1.033046376006665</v>
+        <v>0.8553179672313246</v>
       </c>
     </row>
   </sheetData>
@@ -2949,14 +2823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2982,149 +2856,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.8668683812405452E-2</v>
+        <v>0.4659606656580938</v>
       </c>
       <c r="C2">
-        <v>74.868972746331238</v>
+        <v>81.58805031446541</v>
       </c>
       <c r="D2">
-        <v>6.2984218077474896</v>
+        <v>33.27116212338594</v>
       </c>
       <c r="E2">
-        <v>22.30913789053324</v>
+        <v>56.81700728212357</v>
       </c>
       <c r="F2">
-        <v>9.6938775510204085</v>
+        <v>85.61224489795919</v>
       </c>
       <c r="G2">
-        <v>17.40166865315852</v>
+        <v>43.83194278903456</v>
       </c>
       <c r="H2">
-        <v>78.178494266245636</v>
+        <v>94.08343028087086</v>
       </c>
       <c r="I2">
-        <v>33.879477922799232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63.04359900027771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.15128593040847199</v>
+        <v>0.1754916792738276</v>
       </c>
       <c r="C3">
-        <v>13.5482180293501</v>
+        <v>6.268343815513627</v>
       </c>
       <c r="D3">
-        <v>3.2639885222381628</v>
+        <v>8.550932568149211</v>
       </c>
       <c r="E3">
-        <v>28.064364575992489</v>
+        <v>19.20366455250176</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.264600715137068</v>
+        <v>4.082240762812873</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>36.695362399333519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20.88308803110247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.518910741301059</v>
+        <v>3.685325264750378</v>
       </c>
       <c r="C4">
-        <v>7.866876310272537</v>
+        <v>5.738993710691824</v>
       </c>
       <c r="D4">
-        <v>16.59253945480631</v>
+        <v>22.43185078909612</v>
       </c>
       <c r="E4">
-        <v>29.516091143998121</v>
+        <v>16.36128729151985</v>
       </c>
       <c r="F4">
-        <v>0.91836734693877564</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="G4">
-        <v>14.54112038140644</v>
+        <v>12.76817640047676</v>
       </c>
       <c r="H4">
-        <v>0.54844606946983543</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>22.910302693696199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11.08580949736184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>23.594553706505291</v>
+        <v>29.99092284417549</v>
       </c>
       <c r="C5">
-        <v>3.2861635220125791</v>
+        <v>4.748427672955975</v>
       </c>
       <c r="D5">
-        <v>40.982783357245339</v>
+        <v>26.37015781922525</v>
       </c>
       <c r="E5">
-        <v>17.881136950904391</v>
+        <v>7.108292224571295</v>
       </c>
       <c r="F5">
-        <v>5.1020408163265314</v>
+        <v>2.346938775510204</v>
       </c>
       <c r="G5">
-        <v>32.68772348033373</v>
+        <v>20.64958283671037</v>
       </c>
       <c r="H5">
-        <v>10.719627721455881</v>
+        <v>0.03323915572544457</v>
       </c>
       <c r="I5">
-        <v>5.659539016939739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.732296584282144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>74.656580937972777</v>
+        <v>65.6822995461422</v>
       </c>
       <c r="C6">
-        <v>0.42976939203354292</v>
+        <v>1.656184486373165</v>
       </c>
       <c r="D6">
-        <v>32.862266857962688</v>
+        <v>9.375896700143473</v>
       </c>
       <c r="E6">
-        <v>2.2292694385717642</v>
+        <v>0.509748649283533</v>
       </c>
       <c r="F6">
-        <v>84.285714285714292</v>
+        <v>11.73469387755102</v>
       </c>
       <c r="G6">
-        <v>33.104886769964253</v>
+        <v>18.66805721096544</v>
       </c>
       <c r="H6">
-        <v>10.55343194282865</v>
+        <v>5.88333056340369</v>
       </c>
       <c r="I6">
-        <v>0.85531796723132458</v>
+        <v>1.25520688697584</v>
       </c>
     </row>
   </sheetData>
@@ -3133,14 +3007,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3166,149 +3040,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4659606656580938</v>
+        <v>86.70499243570347</v>
       </c>
       <c r="C2">
-        <v>81.588050314465406</v>
+        <v>99.49685534591195</v>
       </c>
       <c r="D2">
-        <v>33.271162123385942</v>
+        <v>95.20086083213774</v>
       </c>
       <c r="E2">
-        <v>56.817007282123569</v>
+        <v>98.23819591261451</v>
       </c>
       <c r="F2">
-        <v>85.612244897959187</v>
+        <v>95.30612244897959</v>
       </c>
       <c r="G2">
-        <v>43.831942789034557</v>
+        <v>95.1430274135876</v>
       </c>
       <c r="H2">
-        <v>94.083430280870857</v>
+        <v>99.58451055343194</v>
       </c>
       <c r="I2">
-        <v>63.043599000277709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99.38350458206054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.17549167927382761</v>
+        <v>3.158850226928896</v>
       </c>
       <c r="C3">
-        <v>6.2683438155136271</v>
+        <v>0.1153039832285115</v>
       </c>
       <c r="D3">
-        <v>8.5509325681492108</v>
+        <v>1.219512195121951</v>
       </c>
       <c r="E3">
-        <v>19.20366455250176</v>
+        <v>0.5543810194972986</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.082240762812873</v>
+        <v>0.9982121573301549</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.883088031102471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.2110524854207164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.6853252647503778</v>
+        <v>3.310136157337368</v>
       </c>
       <c r="C4">
-        <v>5.7389937106918243</v>
+        <v>0.1362683438155136</v>
       </c>
       <c r="D4">
-        <v>22.431850789096121</v>
+        <v>1.205164992826399</v>
       </c>
       <c r="E4">
-        <v>16.361287291519851</v>
+        <v>0.4862579281183932</v>
       </c>
       <c r="F4">
-        <v>0.30612244897959179</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>12.76817640047676</v>
+        <v>1.102502979737783</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.08580949736184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.1832824215495696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>29.99092284417549</v>
+        <v>3.655068078668684</v>
       </c>
       <c r="C5">
-        <v>4.7484276729559749</v>
+        <v>0.1310272536687631</v>
       </c>
       <c r="D5">
-        <v>26.370157819225248</v>
+        <v>1.18364418938307</v>
       </c>
       <c r="E5">
-        <v>7.1082922245712954</v>
+        <v>0.3969931876908621</v>
       </c>
       <c r="F5">
-        <v>2.3469387755102038</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>20.649582836710369</v>
+        <v>1.057806912991657</v>
       </c>
       <c r="H5">
-        <v>3.3239155725444572E-2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3.7322965842821438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.116634268258817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>65.682299546142204</v>
+        <v>3.170953101361573</v>
       </c>
       <c r="C6">
-        <v>1.656184486373165</v>
+        <v>0.1205450733752621</v>
       </c>
       <c r="D6">
-        <v>9.375896700143473</v>
+        <v>1.190817790530846</v>
       </c>
       <c r="E6">
-        <v>0.50974864928353303</v>
+        <v>0.3241719520789288</v>
       </c>
       <c r="F6">
-        <v>11.73469387755102</v>
+        <v>4.693877551020408</v>
       </c>
       <c r="G6">
-        <v>18.66805721096544</v>
+        <v>1.698450536352801</v>
       </c>
       <c r="H6">
-        <v>5.8833305634036899</v>
+        <v>0.4154894465680571</v>
       </c>
       <c r="I6">
-        <v>1.2552068869758399</v>
+        <v>0.1055262427103582</v>
       </c>
     </row>
   </sheetData>
@@ -3317,14 +3191,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3350,149 +3224,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>86.704992435703474</v>
+        <v>69.28895612708018</v>
       </c>
       <c r="C2">
-        <v>99.496855345911953</v>
+        <v>98.94654088050314</v>
       </c>
       <c r="D2">
-        <v>95.200860832137735</v>
+        <v>90.58106169296987</v>
       </c>
       <c r="E2">
-        <v>98.238195912614515</v>
+        <v>96.77707305614283</v>
       </c>
       <c r="F2">
-        <v>95.306122448979593</v>
+        <v>90.81632653061224</v>
       </c>
       <c r="G2">
-        <v>95.143027413587603</v>
+        <v>89.55601907032181</v>
       </c>
       <c r="H2">
-        <v>99.58451055343194</v>
+        <v>99.15240152900117</v>
       </c>
       <c r="I2">
-        <v>99.383504582060539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98.6781449597334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3.1588502269288958</v>
+        <v>6.118003025718608</v>
       </c>
       <c r="C3">
-        <v>0.1153039832285115</v>
+        <v>0.4035639412997904</v>
       </c>
       <c r="D3">
-        <v>1.219512195121951</v>
+        <v>2.804878048780488</v>
       </c>
       <c r="E3">
-        <v>0.55438101949729857</v>
+        <v>1.273197087150576</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.99821215733015489</v>
+        <v>2.339094159713945</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.21105248542071639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.4554290474868092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.310136157337368</v>
+        <v>7.655068078668684</v>
       </c>
       <c r="C4">
-        <v>0.13626834381551359</v>
+        <v>0.2935010482180294</v>
       </c>
       <c r="D4">
-        <v>1.205164992826399</v>
+        <v>2.589670014347202</v>
       </c>
       <c r="E4">
-        <v>0.48625792811839319</v>
+        <v>0.9184871975569651</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.102502979737783</v>
+        <v>1.99642431466031</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.18328242154956961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.2888086642599278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3.655068078668684</v>
+        <v>8.260211800302573</v>
       </c>
       <c r="C5">
-        <v>0.13102725366876311</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="D5">
-        <v>1.18364418938307</v>
+        <v>2.317073170731707</v>
       </c>
       <c r="E5">
-        <v>0.39699318769086211</v>
+        <v>0.6906272022551093</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="G5">
-        <v>1.057806912991657</v>
+        <v>2.607270560190703</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.11663426825881699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.3054707025826159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3.1709531013615728</v>
+        <v>8.677760968229954</v>
       </c>
       <c r="C6">
         <v>0.1205450733752621</v>
       </c>
       <c r="D6">
-        <v>1.1908177905308459</v>
+        <v>1.707317073170732</v>
       </c>
       <c r="E6">
-        <v>0.32417195207892879</v>
+        <v>0.3406154568945267</v>
       </c>
       <c r="F6">
-        <v>4.6938775510204076</v>
+        <v>8.979591836734693</v>
       </c>
       <c r="G6">
-        <v>1.6984505363528011</v>
+        <v>3.50119189511323</v>
       </c>
       <c r="H6">
-        <v>0.41548944656805709</v>
+        <v>0.8475984709988366</v>
       </c>
       <c r="I6">
-        <v>0.1055262427103582</v>
+        <v>0.2721466259372397</v>
       </c>
     </row>
   </sheetData>
@@ -3501,14 +3375,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3534,149 +3408,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>69.288956127080183</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>98.946540880503136</v>
+        <v>43.65303983228512</v>
       </c>
       <c r="D2">
-        <v>90.581061692969868</v>
+        <v>99.99282639885222</v>
       </c>
       <c r="E2">
-        <v>96.777073056142825</v>
+        <v>99.95771670190274</v>
       </c>
       <c r="F2">
-        <v>90.816326530612244</v>
+        <v>99.79591836734694</v>
       </c>
       <c r="G2">
-        <v>89.55601907032181</v>
+        <v>99.89570917759238</v>
       </c>
       <c r="H2">
-        <v>99.152401529001168</v>
+        <v>83.8956290510221</v>
       </c>
       <c r="I2">
-        <v>98.678144959733402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99.96667592335461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.1180030257186084</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4035639412997904</v>
+        <v>13.45911949685535</v>
       </c>
       <c r="D3">
-        <v>2.8048780487804881</v>
+        <v>0.007173601147776184</v>
       </c>
       <c r="E3">
-        <v>1.273197087150576</v>
+        <v>0.02583979328165375</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="G3">
-        <v>2.339094159713945</v>
+        <v>0.02979737783075089</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.800232674090077</v>
       </c>
       <c r="I3">
-        <v>0.45542904748680918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.03332407664537628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.655068078668684</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.29350104821802941</v>
+        <v>15.10482180293501</v>
       </c>
       <c r="D4">
-        <v>2.589670014347202</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.91848719755696506</v>
+        <v>0.004698144233027954</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.99642431466031</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8808376267242812</v>
       </c>
       <c r="I4">
-        <v>0.28880866425992779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>8.2602118003025726</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.23584905660377359</v>
+        <v>14.36582809224319</v>
       </c>
       <c r="D5">
-        <v>2.3170731707317072</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.69062720225510932</v>
+        <v>0.002349072116513977</v>
       </c>
       <c r="F5">
-        <v>0.2040816326530612</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.6072705601907029</v>
+        <v>0.04469606674612634</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.224198105368123</v>
       </c>
       <c r="I5">
-        <v>0.30547070258261588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>8.6777609682299541</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1205450733752621</v>
+        <v>13.41719077568134</v>
       </c>
       <c r="D6">
-        <v>1.7073170731707319</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.34061545689452671</v>
+        <v>0.009396288466055908</v>
       </c>
       <c r="F6">
-        <v>8.9795918367346932</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3.5011918951132301</v>
+        <v>0.02979737783075089</v>
       </c>
       <c r="H6">
-        <v>0.84759847099883656</v>
+        <v>6.199102542795413</v>
       </c>
       <c r="I6">
-        <v>0.27214662593723971</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3685,14 +3559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3718,7 +3592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3726,28 +3600,28 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>43.653039832285117</v>
+        <v>83.5587002096436</v>
       </c>
       <c r="D2">
-        <v>99.992826398852216</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>99.95771670190274</v>
+        <v>99.99295278365045</v>
       </c>
       <c r="F2">
-        <v>99.795918367346943</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>99.89570917759238</v>
+        <v>99.98510131108462</v>
       </c>
       <c r="H2">
-        <v>83.895629051022098</v>
+        <v>99.21887984045206</v>
       </c>
       <c r="I2">
-        <v>99.966675923354614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3755,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.459119496855349</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="D3">
-        <v>7.1736011477761836E-3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.5839793281653749E-2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2040816326530612</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.9797377830750892E-2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.8002326740900774</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.3324076645376281E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3784,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>15.10482180293501</v>
+        <v>4.182389937106918</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.6981442330279542E-3</v>
+        <v>0.002349072116513977</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3799,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.88083762672428123</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3813,28 +3687,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>14.36582809224319</v>
+        <v>3.977987421383648</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.3490721165139771E-3</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.4696066746126341E-2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3.224198105368123</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3842,22 +3716,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.417190775681339</v>
+        <v>4.114255765199162</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.3962884660559083E-3</v>
+        <v>0.004698144233027954</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.9797377830750892E-2</v>
+        <v>0.01489868891537545</v>
       </c>
       <c r="H6">
-        <v>6.199102542795413</v>
+        <v>0.7811201595479476</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3869,14 +3743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3902,7 +3776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3910,28 +3784,28 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>83.558700209643604</v>
+        <v>45.60796645702306</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>99.992952783650452</v>
+        <v>99.97181113460184</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>99.89795918367346</v>
       </c>
       <c r="G2">
-        <v>99.98510131108462</v>
+        <v>99.91060786650775</v>
       </c>
       <c r="H2">
-        <v>99.218879840452061</v>
+        <v>86.4218048861559</v>
       </c>
       <c r="I2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99.98889197445155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3939,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.1666666666666661</v>
+        <v>13.34905660377358</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.007047216349541931</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3954,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.465348180156224</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.01110802554845876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3968,28 +3842,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.182389937106918</v>
+        <v>14.64360587002096</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.3490721165139771E-3</v>
+        <v>0.002349072116513977</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.01489868891537545</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.70616586338707</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3997,28 +3871,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.9779874213836481</v>
+        <v>14.50733752620545</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.004698144233027954</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.04469606674612634</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6647831145088915</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -4026,206 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.1142557651991618</v>
+        <v>11.89203354297694</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.6981442330279542E-3</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1.4898688915375449E-2</v>
-      </c>
-      <c r="H6">
-        <v>0.78112015954794756</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>45.607966457023061</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>99.971811134601836</v>
-      </c>
-      <c r="F2">
-        <v>99.897959183673464</v>
-      </c>
-      <c r="G2">
-        <v>99.910607866507746</v>
-      </c>
-      <c r="H2">
-        <v>86.421804886155897</v>
-      </c>
-      <c r="I2">
-        <v>99.988891974451548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>13.34905660377358</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>7.0472163495419312E-3</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.46534818015622398</v>
-      </c>
-      <c r="I3">
-        <v>1.110802554845876E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>14.643605870020959</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2.3490721165139771E-3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1.4898688915375449E-2</v>
-      </c>
-      <c r="H4">
-        <v>3.7061658633870702</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>14.50733752620545</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>4.6981442330279542E-3</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>4.4696066746126341E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.66478311450889149</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>11.892033542976939</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1.4094432699083861E-2</v>
+        <v>0.01409443269908386</v>
       </c>
       <c r="F6">
         <v>0.1020408163265306</v>
       </c>
       <c r="G6">
-        <v>2.9797377830750892E-2</v>
+        <v>0.02979737783075089</v>
       </c>
       <c r="H6">
-        <v>8.7418979557919236</v>
+        <v>8.741897955791924</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4237,16 +3927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="250" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4272,149 +3960,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.385779122541604</v>
       </c>
       <c r="C2">
-        <v>3.1446540880503138E-2</v>
+        <v>50.41928721174004</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.571018651362984</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4.968287526427061</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>53.99700847598471</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18.17828381005276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>35.903177004538577</v>
+        <v>4.841149773071105</v>
       </c>
       <c r="C3">
-        <v>26.59853249475891</v>
+        <v>33.82075471698113</v>
       </c>
       <c r="D3">
-        <v>28.03443328550933</v>
+        <v>2.87661406025825</v>
       </c>
       <c r="E3">
-        <v>25.712943387361989</v>
+        <v>19.66173361522199</v>
       </c>
       <c r="F3">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.421930870083431</v>
+        <v>0.8939213349225268</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.814359315273392</v>
       </c>
       <c r="I3">
-        <v>22.910302693696199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56.12885309636212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>24.93192133131619</v>
+        <v>23.36459909228442</v>
       </c>
       <c r="C4">
-        <v>21.042976939203349</v>
+        <v>10.30922431865828</v>
       </c>
       <c r="D4">
-        <v>24.18938307030129</v>
+        <v>14.94261119081779</v>
       </c>
       <c r="E4">
-        <v>29.727507634484379</v>
+        <v>32.53229974160207</v>
       </c>
       <c r="F4">
-        <v>2.8571428571428572</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G4">
-        <v>18.83194278903456</v>
+        <v>6.376638855780692</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>13.16270566727605</v>
       </c>
       <c r="I4">
-        <v>30.552624271035821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18.46153846153846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>25.264750378214831</v>
+        <v>38.16036308623298</v>
       </c>
       <c r="C5">
-        <v>26.666666666666671</v>
+        <v>4.234800838574423</v>
       </c>
       <c r="D5">
-        <v>26.857962697274029</v>
+        <v>33.02008608321378</v>
       </c>
       <c r="E5">
-        <v>26.972046041813481</v>
+        <v>27.39018087855297</v>
       </c>
       <c r="F5">
-        <v>11.22448979591837</v>
+        <v>1.836734693877551</v>
       </c>
       <c r="G5">
-        <v>25.342669845053631</v>
+        <v>15.43504171632896</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14.94100049858734</v>
       </c>
       <c r="I5">
-        <v>25.51513468480978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.259650097195224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>13.900151285930409</v>
+        <v>32.24810892586989</v>
       </c>
       <c r="C6">
-        <v>25.660377358490571</v>
+        <v>1.215932914046121</v>
       </c>
       <c r="D6">
-        <v>20.918220946915351</v>
+        <v>47.5896700143472</v>
       </c>
       <c r="E6">
-        <v>17.587502936340151</v>
+        <v>15.44749823819591</v>
       </c>
       <c r="F6">
-        <v>85.816326530612244</v>
+        <v>95.30612244897959</v>
       </c>
       <c r="G6">
-        <v>41.403456495828372</v>
+        <v>77.29439809296782</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>17.08492604287851</v>
       </c>
       <c r="I6">
-        <v>21.02193835045821</v>
+        <v>1.97167453485143</v>
       </c>
     </row>
   </sheetData>
@@ -4423,16 +4111,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="268" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4458,149 +4144,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.3857791225416041</v>
+        <v>33.3071104387292</v>
       </c>
       <c r="C2">
-        <v>50.419287211740041</v>
+        <v>88.34381551362684</v>
       </c>
       <c r="D2">
-        <v>1.571018651362984</v>
+        <v>38.04878048780488</v>
       </c>
       <c r="E2">
-        <v>4.9682875264270612</v>
+        <v>51.74301151045337</v>
       </c>
       <c r="F2">
-        <v>2.1428571428571428</v>
+        <v>42.14285714285715</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>53.997008475984707</v>
+        <v>98.20508559082599</v>
       </c>
       <c r="I2">
-        <v>18.178283810052761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75.8233823937795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4.8411497730711046</v>
+        <v>11.17095310136157</v>
       </c>
       <c r="C3">
-        <v>33.820754716981128</v>
+        <v>5.953878406708595</v>
       </c>
       <c r="D3">
-        <v>2.8766140602582499</v>
+        <v>7.431850789096127</v>
       </c>
       <c r="E3">
-        <v>19.661733615221991</v>
+        <v>16.17101245008222</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.89392133492252679</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.814359315273392</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>56.128853096362121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14.63482366009442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>23.364599092284418</v>
+        <v>18.34190620272314</v>
       </c>
       <c r="C4">
-        <v>10.309224318658281</v>
+        <v>3.296645702306079</v>
       </c>
       <c r="D4">
-        <v>14.942611190817789</v>
+        <v>15.76040172166427</v>
       </c>
       <c r="E4">
-        <v>32.532299741602067</v>
+        <v>15.58374442095372</v>
       </c>
       <c r="F4">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.3766388557806923</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>13.16270566727605</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>18.46153846153846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.83171341294085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>38.160363086232977</v>
+        <v>23.34039334341906</v>
       </c>
       <c r="C5">
-        <v>4.2348008385744231</v>
+        <v>1.79769392033543</v>
       </c>
       <c r="D5">
-        <v>33.020086083213783</v>
+        <v>24.07460545193687</v>
       </c>
       <c r="E5">
-        <v>27.390180878552972</v>
+        <v>12.81653746770026</v>
       </c>
       <c r="F5">
-        <v>1.8367346938775511</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="G5">
-        <v>15.435041716328961</v>
+        <v>1.17699642431466</v>
       </c>
       <c r="H5">
-        <v>14.941000498587339</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5.259650097195224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.482643710080533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>32.248108925869893</v>
+        <v>13.83963691376702</v>
       </c>
       <c r="C6">
-        <v>1.215932914046121</v>
+        <v>0.6079664570230607</v>
       </c>
       <c r="D6">
-        <v>47.589670014347199</v>
+        <v>14.68436154949785</v>
       </c>
       <c r="E6">
-        <v>15.447498238195911</v>
+        <v>3.68569415081043</v>
       </c>
       <c r="F6">
-        <v>95.306122448979593</v>
+        <v>57.3469387755102</v>
       </c>
       <c r="G6">
-        <v>77.294398092967825</v>
+        <v>98.82300357568535</v>
       </c>
       <c r="H6">
-        <v>17.084926042878511</v>
+        <v>1.794914409174007</v>
       </c>
       <c r="I6">
-        <v>1.97167453485143</v>
+        <v>1.227436823104693</v>
       </c>
     </row>
   </sheetData>
@@ -4609,16 +4295,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="239" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4644,149 +4328,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.307110438729197</v>
+        <v>4.114977307110439</v>
       </c>
       <c r="C2">
-        <v>88.343815513626836</v>
+        <v>19.40775681341719</v>
       </c>
       <c r="D2">
-        <v>38.048780487804883</v>
+        <v>1.33428981348637</v>
       </c>
       <c r="E2">
-        <v>51.743011510453371</v>
+        <v>1.98496593845431</v>
       </c>
       <c r="F2">
-        <v>42.142857142857153</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5.676400476758045</v>
       </c>
       <c r="H2">
-        <v>98.205085590825988</v>
+        <v>24.3809207246136</v>
       </c>
       <c r="I2">
-        <v>75.823382393779497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.68231046931408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>11.170953101361571</v>
+        <v>10.85022692889561</v>
       </c>
       <c r="C3">
-        <v>5.9538784067085953</v>
+        <v>77.42662473794549</v>
       </c>
       <c r="D3">
-        <v>7.431850789096127</v>
+        <v>2.094691535150646</v>
       </c>
       <c r="E3">
-        <v>16.17101245008222</v>
+        <v>12.18698614047451</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>11.17401668653159</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>24.09838790094732</v>
       </c>
       <c r="I3">
-        <v>14.634823660094421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26.21494029436268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>18.341906202723141</v>
+        <v>18.68683812405446</v>
       </c>
       <c r="C4">
-        <v>3.2966457023060789</v>
+        <v>3.024109014675052</v>
       </c>
       <c r="D4">
-        <v>15.76040172166427</v>
+        <v>2.410329985652798</v>
       </c>
       <c r="E4">
-        <v>15.583744420953719</v>
+        <v>34.82969227155274</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>22.46722288438617</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>17.98238324746551</v>
       </c>
       <c r="I4">
-        <v>5.8317134129408501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41.91613440710913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>23.340393343419059</v>
+        <v>29.18003025718608</v>
       </c>
       <c r="C5">
-        <v>1.7976939203354301</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="D5">
-        <v>24.074605451936868</v>
+        <v>17.2883787661406</v>
       </c>
       <c r="E5">
-        <v>12.816537467700259</v>
+        <v>34.92130608409678</v>
       </c>
       <c r="F5">
-        <v>0.51020408163265307</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="G5">
-        <v>1.17699642431466</v>
+        <v>29.87187127532777</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>16.65281701844773</v>
       </c>
       <c r="I5">
-        <v>2.482643710080533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.3051930019439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>13.83963691376702</v>
+        <v>37.1679273827534</v>
       </c>
       <c r="C6">
-        <v>0.60796645702306074</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>14.684361549497851</v>
+        <v>76.87230989956959</v>
       </c>
       <c r="E6">
-        <v>3.6856941508104302</v>
+        <v>16.07704956542166</v>
       </c>
       <c r="F6">
-        <v>57.346938775510203</v>
+        <v>96.32653061224489</v>
       </c>
       <c r="G6">
-        <v>98.823003575685348</v>
+        <v>30.81048867699642</v>
       </c>
       <c r="H6">
-        <v>1.794914409174007</v>
+        <v>16.88549110852584</v>
       </c>
       <c r="I6">
-        <v>1.227436823104693</v>
+        <v>6.881421827270202</v>
       </c>
     </row>
   </sheetData>
@@ -4795,19 +4479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="206" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4833,149 +4512,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.114977307110439</v>
+        <v>4.223903177004538</v>
       </c>
       <c r="C2">
-        <v>19.407756813417191</v>
+        <v>21.54088050314466</v>
       </c>
       <c r="D2">
-        <v>1.3342898134863701</v>
+        <v>1.348637015781923</v>
       </c>
       <c r="E2">
-        <v>1.9849659384543099</v>
+        <v>2.036645525017618</v>
       </c>
       <c r="F2">
-        <v>2.8571428571428572</v>
+        <v>2.959183673469388</v>
       </c>
       <c r="G2">
-        <v>5.6764004767580447</v>
+        <v>5.944576877234804</v>
       </c>
       <c r="H2">
-        <v>24.380920724613599</v>
+        <v>26.1758351337876</v>
       </c>
       <c r="I2">
-        <v>3.6823104693140798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.782282699250208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.85022692889561</v>
+        <v>18.5052950075643</v>
       </c>
       <c r="C3">
-        <v>77.426624737945488</v>
+        <v>73.78406708595388</v>
       </c>
       <c r="D3">
-        <v>2.0946915351506461</v>
+        <v>2.202295552367288</v>
       </c>
       <c r="E3">
-        <v>12.186986140474509</v>
+        <v>13.04674653511863</v>
       </c>
       <c r="F3">
-        <v>0.30612244897959179</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="G3">
-        <v>11.174016686531591</v>
+        <v>15.1668653158522</v>
       </c>
       <c r="H3">
-        <v>24.098387900947319</v>
+        <v>22.83529998338042</v>
       </c>
       <c r="I3">
-        <v>26.21494029436268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19.05026381560678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>18.686838124054461</v>
+        <v>29.05295007564296</v>
       </c>
       <c r="C4">
-        <v>3.024109014675052</v>
+        <v>4.371069182389937</v>
       </c>
       <c r="D4">
-        <v>2.410329985652798</v>
+        <v>5.652797704447632</v>
       </c>
       <c r="E4">
-        <v>34.829692271552737</v>
+        <v>32.60747004933052</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="G4">
-        <v>22.467222884386171</v>
+        <v>25.83432657926102</v>
       </c>
       <c r="H4">
-        <v>17.98238324746551</v>
+        <v>13.99368456041216</v>
       </c>
       <c r="I4">
-        <v>41.916134407109134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32.95751180227715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>29.180030257186079</v>
+        <v>26.0393343419062</v>
       </c>
       <c r="C5">
-        <v>0.14150943396226409</v>
+        <v>0.2882599580712788</v>
       </c>
       <c r="D5">
-        <v>17.2883787661406</v>
+        <v>24.17503586800574</v>
       </c>
       <c r="E5">
-        <v>34.921306084096777</v>
+        <v>31.60911439981207</v>
       </c>
       <c r="F5">
-        <v>0.51020408163265307</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="G5">
-        <v>29.87187127532777</v>
+        <v>26.89213349225269</v>
       </c>
       <c r="H5">
-        <v>16.652817018447731</v>
+        <v>14.25959780621572</v>
       </c>
       <c r="I5">
-        <v>21.305193001943898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27.6367675645654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>37.167927382753398</v>
+        <v>22.178517397882</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01572327044025157</v>
       </c>
       <c r="D6">
-        <v>76.872309899569586</v>
+        <v>66.62123385939742</v>
       </c>
       <c r="E6">
-        <v>16.07704956542166</v>
+        <v>20.70002349072116</v>
       </c>
       <c r="F6">
-        <v>96.326530612244895</v>
+        <v>96.53061224489797</v>
       </c>
       <c r="G6">
-        <v>30.810488676996421</v>
+        <v>26.16209773539929</v>
       </c>
       <c r="H6">
-        <v>16.885491108525841</v>
+        <v>22.73558251620409</v>
       </c>
       <c r="I6">
-        <v>6.8814218272702021</v>
+        <v>16.57317411830047</v>
       </c>
     </row>
   </sheetData>
@@ -4984,16 +4663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="230" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5019,149 +4696,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.2239031770045381</v>
+        <v>18.94704992435704</v>
       </c>
       <c r="C2">
-        <v>21.54088050314466</v>
+        <v>58.07127882599581</v>
       </c>
       <c r="D2">
-        <v>1.348637015781923</v>
+        <v>17.23098995695839</v>
       </c>
       <c r="E2">
-        <v>2.0366455250176179</v>
+        <v>19.34695795160911</v>
       </c>
       <c r="F2">
-        <v>2.9591836734693882</v>
+        <v>18.97959183673469</v>
       </c>
       <c r="G2">
-        <v>5.9445768772348044</v>
+        <v>19.9642431466031</v>
       </c>
       <c r="H2">
-        <v>26.175835133787601</v>
+        <v>51.43759348512548</v>
       </c>
       <c r="I2">
-        <v>3.7822826992502079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.183004720910858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>18.5052950075643</v>
+        <v>40.97428139183056</v>
       </c>
       <c r="C3">
-        <v>73.784067085953879</v>
+        <v>26.97589098532494</v>
       </c>
       <c r="D3">
-        <v>2.2022955523672878</v>
+        <v>16.96556671449067</v>
       </c>
       <c r="E3">
-        <v>13.046746535118629</v>
+        <v>12.31148696264975</v>
       </c>
       <c r="F3">
-        <v>0.2040816326530612</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="G3">
-        <v>15.166865315852201</v>
+        <v>17.74433849821216</v>
       </c>
       <c r="H3">
-        <v>22.83529998338042</v>
+        <v>5.517699850423799</v>
       </c>
       <c r="I3">
-        <v>19.05026381560678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13.65176339905582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>29.052950075642961</v>
+        <v>23.90922844175492</v>
       </c>
       <c r="C4">
-        <v>4.3710691823899372</v>
+        <v>9.612159329140461</v>
       </c>
       <c r="D4">
-        <v>5.6527977044476323</v>
+        <v>20.480631276901</v>
       </c>
       <c r="E4">
-        <v>32.607470049330523</v>
+        <v>16.41061780596664</v>
       </c>
       <c r="F4">
-        <v>0.2040816326530612</v>
+        <v>1.530612244897959</v>
       </c>
       <c r="G4">
-        <v>25.83432657926102</v>
+        <v>21.39451728247914</v>
       </c>
       <c r="H4">
-        <v>13.993684560412159</v>
+        <v>13.644673425295</v>
       </c>
       <c r="I4">
-        <v>32.957511802277153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31.41349625104138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>26.039334341906201</v>
+        <v>11.34039334341906</v>
       </c>
       <c r="C5">
-        <v>0.2882599580712788</v>
+        <v>4.219077568134172</v>
       </c>
       <c r="D5">
-        <v>24.17503586800574</v>
+        <v>22.34576757532281</v>
       </c>
       <c r="E5">
-        <v>31.609114399812071</v>
+        <v>24.50317124735729</v>
       </c>
       <c r="F5">
-        <v>0.1020408163265306</v>
+        <v>2.448979591836735</v>
       </c>
       <c r="G5">
-        <v>26.89213349225269</v>
+        <v>20.64958283671037</v>
       </c>
       <c r="H5">
-        <v>14.259597806215719</v>
+        <v>7.977397374106698</v>
       </c>
       <c r="I5">
-        <v>27.6367675645654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29.97500694251597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>22.178517397882</v>
+        <v>4.829046898638427</v>
       </c>
       <c r="C6">
-        <v>1.5723270440251569E-2</v>
+        <v>1.121593291404612</v>
       </c>
       <c r="D6">
-        <v>66.621233859397421</v>
+        <v>22.97704447632712</v>
       </c>
       <c r="E6">
-        <v>20.700023490721161</v>
+        <v>27.4277660324172</v>
       </c>
       <c r="F6">
-        <v>96.530612244897966</v>
+        <v>76.53061224489795</v>
       </c>
       <c r="G6">
-        <v>26.162097735399289</v>
+        <v>20.24731823599523</v>
       </c>
       <c r="H6">
-        <v>22.73558251620409</v>
+        <v>21.42263586504903</v>
       </c>
       <c r="I6">
-        <v>16.573174118300471</v>
+        <v>23.77672868647598</v>
       </c>
     </row>
   </sheetData>
@@ -5170,16 +4847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="242" workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5205,149 +4880,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.947049924357039</v>
+        <v>54.45083207261725</v>
       </c>
       <c r="C2">
-        <v>58.071278825995812</v>
+        <v>79.74318658280922</v>
       </c>
       <c r="D2">
-        <v>17.230989956958389</v>
+        <v>57.88378766140602</v>
       </c>
       <c r="E2">
-        <v>19.346957951609109</v>
+        <v>39.5630725863284</v>
       </c>
       <c r="F2">
-        <v>18.979591836734691</v>
+        <v>48.46938775510204</v>
       </c>
       <c r="G2">
-        <v>19.964243146603099</v>
+        <v>63.05125148986889</v>
       </c>
       <c r="H2">
-        <v>51.437593485125483</v>
+        <v>79.25876682732259</v>
       </c>
       <c r="I2">
-        <v>1.1830047209108581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>40.974281391830559</v>
+        <v>27.06807866868381</v>
       </c>
       <c r="C3">
-        <v>26.975890985324941</v>
+        <v>6.734800838574423</v>
       </c>
       <c r="D3">
-        <v>16.96556671449067</v>
+        <v>21.00430416068867</v>
       </c>
       <c r="E3">
-        <v>12.311486962649751</v>
+        <v>15.77401926239136</v>
       </c>
       <c r="F3">
-        <v>0.51020408163265307</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="G3">
-        <v>17.744338498212159</v>
+        <v>13.4684147794994</v>
       </c>
       <c r="H3">
-        <v>5.5176998504237993</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>13.65176339905582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>23.909228441754919</v>
+        <v>13.09531013615734</v>
       </c>
       <c r="C4">
-        <v>9.6121593291404608</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="D4">
-        <v>20.480631276901001</v>
+        <v>12.63988522238164</v>
       </c>
       <c r="E4">
-        <v>16.410617805966641</v>
+        <v>24.20953723279305</v>
       </c>
       <c r="F4">
-        <v>1.5306122448979591</v>
+        <v>1.122448979591837</v>
       </c>
       <c r="G4">
-        <v>21.394517282479139</v>
+        <v>10.0715137067938</v>
       </c>
       <c r="H4">
-        <v>13.644673425295</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>31.41349625104138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.3443487920022216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>11.340393343419059</v>
+        <v>4.393343419062027</v>
       </c>
       <c r="C5">
-        <v>4.2190775681341721</v>
+        <v>6.022012578616352</v>
       </c>
       <c r="D5">
-        <v>22.34576757532281</v>
+        <v>6.29842180774749</v>
       </c>
       <c r="E5">
-        <v>24.50317124735729</v>
+        <v>19.5630725863284</v>
       </c>
       <c r="F5">
-        <v>2.4489795918367352</v>
+        <v>4.081632653061225</v>
       </c>
       <c r="G5">
-        <v>20.649582836710369</v>
+        <v>9.505363528009534</v>
       </c>
       <c r="H5">
-        <v>7.9773973741066984</v>
+        <v>5.484460694698354</v>
       </c>
       <c r="I5">
-        <v>29.975006942515972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23.43237989447376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>4.8290468986384267</v>
+        <v>0.9924357034795763</v>
       </c>
       <c r="C6">
-        <v>1.1215932914046121</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>22.977044476327119</v>
+        <v>2.173601147776184</v>
       </c>
       <c r="E6">
-        <v>27.4277660324172</v>
+        <v>0.8902983321587973</v>
       </c>
       <c r="F6">
-        <v>76.530612244897952</v>
+        <v>46.12244897959184</v>
       </c>
       <c r="G6">
-        <v>20.24731823599523</v>
+        <v>3.903456495828367</v>
       </c>
       <c r="H6">
-        <v>21.422635865049031</v>
+        <v>15.25677247797906</v>
       </c>
       <c r="I6">
-        <v>23.77672868647598</v>
+        <v>76.22327131352402</v>
       </c>
     </row>
   </sheetData>
@@ -5356,16 +5031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="265" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5391,149 +5064,149 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54.450832072617253</v>
+        <v>10.71104387291982</v>
       </c>
       <c r="C2">
-        <v>79.743186582809216</v>
+        <v>42.41614255765199</v>
       </c>
       <c r="D2">
-        <v>57.883787661406018</v>
+        <v>5.911047345767575</v>
       </c>
       <c r="E2">
-        <v>39.563072586328403</v>
+        <v>1.966173361522199</v>
       </c>
       <c r="F2">
-        <v>48.469387755102041</v>
+        <v>6.73469387755102</v>
       </c>
       <c r="G2">
-        <v>63.051251489868889</v>
+        <v>9.892729439809298</v>
       </c>
       <c r="H2">
-        <v>79.258766827322589</v>
+        <v>31.5439587834469</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.133018605942794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>27.06807866868381</v>
+        <v>60.5748865355522</v>
       </c>
       <c r="C3">
-        <v>6.7348008385744231</v>
+        <v>32.36897274633124</v>
       </c>
       <c r="D3">
-        <v>21.004304160688669</v>
+        <v>30.55236728837877</v>
       </c>
       <c r="E3">
-        <v>15.774019262391359</v>
+        <v>9.556025369978858</v>
       </c>
       <c r="F3">
-        <v>0.2040816326530612</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G3">
-        <v>13.468414779499399</v>
+        <v>27.02622169249106</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.634036895462855</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.743404609830603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>13.095310136157339</v>
+        <v>21.18003025718608</v>
       </c>
       <c r="C4">
-        <v>6.9444444444444446</v>
+        <v>13.57442348008386</v>
       </c>
       <c r="D4">
-        <v>12.63988522238164</v>
+        <v>35.44476327116212</v>
       </c>
       <c r="E4">
-        <v>24.20953723279305</v>
+        <v>23.03265210241954</v>
       </c>
       <c r="F4">
-        <v>1.1224489795918371</v>
+        <v>4.489795918367347</v>
       </c>
       <c r="G4">
-        <v>10.0715137067938</v>
+        <v>32.62812872467223</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>19.72743892305136</v>
       </c>
       <c r="I4">
-        <v>0.34434879200222163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.38405998333796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.3933434190620266</v>
+        <v>5.658093797276853</v>
       </c>
       <c r="C5">
-        <v>6.0220125786163523</v>
+        <v>8.034591194968552</v>
       </c>
       <c r="D5">
-        <v>6.2984218077474896</v>
+        <v>18.47202295552367</v>
       </c>
       <c r="E5">
-        <v>19.563072586328399</v>
+        <v>32.05308902983322</v>
       </c>
       <c r="F5">
-        <v>4.0816326530612246</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="G5">
-        <v>9.5053635280095339</v>
+        <v>18.22109654350417</v>
       </c>
       <c r="H5">
-        <v>5.4844606946983543</v>
+        <v>11.99933521688549</v>
       </c>
       <c r="I5">
-        <v>23.432379894473758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37.08414329352958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.99243570347957633</v>
+        <v>1.875945537065053</v>
       </c>
       <c r="C6">
-        <v>0.55555555555555558</v>
+        <v>3.605870020964361</v>
       </c>
       <c r="D6">
-        <v>2.1736011477761839</v>
+        <v>9.619799139167862</v>
       </c>
       <c r="E6">
-        <v>0.89029833215879728</v>
+        <v>33.39206013624618</v>
       </c>
       <c r="F6">
-        <v>46.122448979591837</v>
+        <v>81.93877551020408</v>
       </c>
       <c r="G6">
-        <v>3.9034564958283671</v>
+        <v>12.23182359952324</v>
       </c>
       <c r="H6">
-        <v>15.256772477979061</v>
+        <v>31.0952301811534</v>
       </c>
       <c r="I6">
-        <v>76.223271313524023</v>
+        <v>40.65537350735907</v>
       </c>
     </row>
   </sheetData>
